--- a/excel/UsefulFunctions/UsefulFunctions.xlsx
+++ b/excel/UsefulFunctions/UsefulFunctions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\DA\Weekly Projects\skills_practice\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\DA\Weekly Projects\skills_practice\excel\UsefulFunctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A5F0D0-7ABD-4BB2-BF8A-EF3B3B228D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7CD0B-6C54-489C-AE9D-71B6C579B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C5142E6-70AB-431C-9CF5-66C43288E417}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{9C5142E6-70AB-431C-9CF5-66C43288E417}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMIFS&amp;UNIQUE" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>DATE</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Yang Wang</t>
+  </si>
+  <si>
+    <t>random list</t>
+  </si>
+  <si>
+    <t>random if clause</t>
   </si>
 </sst>
 </file>
@@ -290,15 +296,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -308,7 +314,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD30B8C2-B9D7-DDA0-3BEA-8E958532BA0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -329,23 +335,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -381,7 +374,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6A8D95-9744-8871-45CF-6809C1F6B136}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -402,23 +395,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -427,10 +407,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5106AF-F971-4737-B00E-1A5816DD062E}">
   <dimension ref="A10:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,13 +744,13 @@
       <c r="C11">
         <v>160</v>
       </c>
-      <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11:E14">_xlfn._xlws.SORT(_xlfn.UNIQUE(B11:B24))</f>
-        <v>Books</v>
+      <c r="E11" t="b" cm="1">
+        <f t="array" ref="E11:E14">COUNTIFS!H3=_xlfn._xlws.SORT(_xlfn.UNIQUE(B11:B24))</f>
+        <v>0</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11:F14">SUMIFS(C11:C24,B11:B24,_xlfn.ANCHORARRAY(E11))</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,11 +763,11 @@
       <c r="C12">
         <v>201</v>
       </c>
-      <c r="E12" t="str">
-        <v>Paints</v>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,11 +780,11 @@
       <c r="C13">
         <v>142</v>
       </c>
-      <c r="E13" t="str">
-        <v>Puzzles</v>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,11 +797,11 @@
       <c r="C14">
         <v>191</v>
       </c>
-      <c r="E14" t="str">
-        <v>Soft Toys</v>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,15 +927,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -975,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB6611-B9E5-430C-875B-DCB8BA5256CB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,10 +963,11 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1003,8 +980,14 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1741</v>
       </c>
@@ -1018,8 +1001,15 @@
         <f>IF(C2&gt;7,"Yes","No")</f>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(C2&gt;E2, "yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1273</v>
       </c>
@@ -1033,8 +1023,15 @@
         <f t="shared" ref="D3:D6" si="0">IF(C3&gt;7,"Yes","No")</f>
         <v>No</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(C3&gt;E3, "yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2155</v>
       </c>
@@ -1048,8 +1045,15 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(C4&gt;E4, "yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2069</v>
       </c>
@@ -1063,8 +1067,15 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(C5&gt;E5, "yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1719</v>
       </c>
@@ -1077,6 +1088,13 @@
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(C6&gt;E6, "yes","no")</f>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1107,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,12 +1144,13 @@
       <c r="B3">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:D4">_xlfn._xlws.SORT(_xlfn.UNIQUE(A2:A9))</f>
+        <v>East</v>
       </c>
       <c r="E3">
         <f>COUNTIFS(A2:A9,D3,B2:B9,"&gt;=200")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,12 +1160,12 @@
       <c r="B4">
         <v>205</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="D4" t="str">
+        <v>West</v>
       </c>
       <c r="E4">
         <f>COUNTIFS(A3:A10,D4,B3:B10,"&gt;=200")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD31B9BA-ADF5-4C04-A4B9-E8D2307C0EF0}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,8 +1288,9 @@
         <f t="shared" ref="F3:F9" si="2">VALUE(E3)</f>
         <v>142</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="H3" t="str" cm="1">
+        <f t="array" ref="H3:H4">_xlfn._xlws.SORT(_xlfn.UNIQUE(D2:D9))</f>
+        <v>East</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(A2:A9,H3,B2:B9,"&gt;=200")</f>
@@ -1296,8 +1316,8 @@
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
+      <c r="H4" t="str">
+        <v>West</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(A3:A10,H4,B3:B10,"&gt;=200")</f>
@@ -1389,12 +1409,13 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
+      <c r="H8" t="str" cm="1">
+        <f t="array" ref="H8:H9">_xlfn._xlws.SORT(_xlfn.UNIQUE(D2:D9))</f>
+        <v>East</v>
       </c>
       <c r="I8">
         <f>COUNTIFS(D2:D9,H8,B2:B9,"&gt;=200")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1416,12 +1437,12 @@
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
+      <c r="H9" t="str">
+        <v>West</v>
       </c>
       <c r="I9">
         <f>COUNTIFS(D2:D9,H9,B2:B9,"&gt;=200")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,8 +1454,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>15</v>
+      <c r="H12" t="str" cm="1">
+        <f t="array" ref="H12:H13">_xlfn._xlws.SORT(_xlfn.UNIQUE(D2:D9))</f>
+        <v>East</v>
       </c>
       <c r="I12">
         <f>COUNTIFS(D2:D9,H12,E2:E9,"&gt;=200")</f>
@@ -1442,8 +1464,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>14</v>
+      <c r="H13" t="str">
+        <v>West</v>
       </c>
       <c r="I13">
         <f>COUNTIFS(D2:D9,H13,E2:E9,"&gt;=200")</f>
@@ -1459,21 +1481,22 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>15</v>
+      <c r="H16" t="str" cm="1">
+        <f t="array" ref="H16:H17">_xlfn._xlws.SORT(_xlfn.UNIQUE(D2:D9))</f>
+        <v>East</v>
       </c>
       <c r="I16">
         <f>COUNTIFS(D2:D9,H16,F2:F9,"&gt;=200")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>14</v>
+      <c r="H17" t="str">
+        <v>West</v>
       </c>
       <c r="I17">
         <f>COUNTIFS(D2:D9,H17,F2:F9,"&gt;=200")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F10A8-89AC-4433-92CD-D4664E88B51A}">
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1659,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22927834-00A9-4817-8C9E-907650442133}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
